--- a/frontend/public/student_data.xlsx
+++ b/frontend/public/student_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Campus_Flow\cms\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Campus_Flow\frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B77A2F-606D-4968-AA3A-17A9F32E21B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407151E8-0C5B-4AD5-A454-44DF20B62D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>_id</t>
   </si>
@@ -46,21 +46,12 @@
     <t>Mobile</t>
   </si>
   <si>
-    <t>Barbara Day</t>
-  </si>
-  <si>
     <t>TYBCA</t>
   </si>
   <si>
     <t>23/10/1998</t>
   </si>
   <si>
-    <t>barbara.day@example.com</t>
-  </si>
-  <si>
-    <t>7657826414</t>
-  </si>
-  <si>
     <t>Neeraj Nambiar</t>
   </si>
   <si>
@@ -71,6 +62,48 @@
   </si>
   <si>
     <t>neerajnambiar58@gmail.com</t>
+  </si>
+  <si>
+    <t>Shyam Goti</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>shyamrgoti571@gmail.com</t>
+  </si>
+  <si>
+    <t>Ravi Vaghela</t>
+  </si>
+  <si>
+    <t>14/09/2001</t>
+  </si>
+  <si>
+    <t>ravivaghela85@gmail.com</t>
+  </si>
+  <si>
+    <t>Nandan Roy</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>31/11/2002</t>
+  </si>
+  <si>
+    <t>nandanroy41@gmail.com</t>
+  </si>
+  <si>
+    <t>Jenish Sharma</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>25/07/2003</t>
+  </si>
+  <si>
+    <t>jenishksharma911@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -449,17 +482,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -490,22 +524,22 @@
         <v>4401</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>9327765412</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -513,27 +547,100 @@
         <v>2301</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="G3">
         <v>8141826896</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5621</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>9513652145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5">
+        <v>9587462132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>7648</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6">
+        <v>8856215666</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{DF3E55F0-FA04-4286-AF44-201CBEB07385}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{97DD36F3-2C76-41A3-B267-EA4D77F5547D}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{E7FA0D49-587D-401A-937B-E8F2B5C0BBBF}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{1B910784-A0A6-433F-9339-EE161591AD4E}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{CFFD685F-D013-4478-9B1B-6A383A6E43B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
